--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://ontology.deic.org/cv/last-test/</t>
+          <t>http://ontology.deic.dk/cv/last-test/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://ontology.deic.org/cv/last-test/</t>
+          <t>http://ontology.deic.dk/cv/last-test/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,10 +815,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hannah</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>https://orcid.org/0000-0003-4093-2147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -840,15 +844,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -870,13 +874,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -900,13 +904,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -930,13 +934,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -960,11 +964,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -986,64 +994,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1056,24 +1020,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:lasttest</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>last test</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1086,10 +1090,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>vars:lasttest</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>last test</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -2903,6 +2911,32 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1120,10 +1120,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>vars:dontknowwhattowrite</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>still clueless what to write</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -877,7 +877,11 @@
           <t>dct:rights</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Minka</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>License under which the vocabulary is provided</t>
@@ -1120,12 +1124,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:dontknowwhattowrite</t>
+          <t>vars:cluelesswhattowrite</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>still clueless what to write</t>
+          <t>clueless what to write</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
